--- a/genes number_2 (1).xlsx
+++ b/genes number_2 (1).xlsx
@@ -474,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I2" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" topLeftCell="J4" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -727,7 +727,7 @@
         <v>197</v>
       </c>
       <c r="S8" s="5">
-        <v>-167</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
@@ -950,7 +950,7 @@
         <v>5</v>
       </c>
       <c r="B19">
-        <v>9261</v>
+        <v>9482</v>
       </c>
       <c r="C19">
         <v>14680</v>
@@ -969,7 +969,7 @@
       </c>
       <c r="I19">
         <f>B19-B20</f>
-        <v>-168</v>
+        <v>53</v>
       </c>
       <c r="J19">
         <f>B20</f>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="N22">
         <f>J19/J19+I19</f>
-        <v>-167</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
